--- a/domains.xlsx
+++ b/domains.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
   <si>
     <t xml:space="preserve">domains</t>
   </si>
@@ -132,13 +132,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="0" width="9.14"/>
@@ -179,6 +179,116 @@
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
